--- a/src/tRNAValues.xlsx
+++ b/src/tRNAValues.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Documents/TranslationDynamics/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC5AB8-2B50-9249-8462-6957E3F792E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1700" windowWidth="30820" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="1580" windowWidth="14600" windowHeight="20820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -87,9 +102,6 @@
     <t>Lys</t>
   </si>
   <si>
-    <t>Met f1</t>
-  </si>
-  <si>
     <t>Phe</t>
   </si>
   <si>
@@ -139,12 +151,15 @@
   </si>
   <si>
     <t>Tyr1+Tyr2</t>
+  </si>
+  <si>
+    <t>Met m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -266,6 +281,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,823 +613,823 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.0583657587548632E-2</v>
+        <v>5.1546391752577317E-2</v>
       </c>
       <c r="B1">
-        <v>5.449041372351162E-2</v>
+        <v>5.5727554179566569E-2</v>
       </c>
       <c r="C1">
-        <v>5.9817945383615068E-2</v>
+        <v>6.1333333333333323E-2</v>
       </c>
       <c r="D1">
-        <v>5.5979643765903316E-2</v>
+        <v>5.7142857142857148E-2</v>
       </c>
       <c r="E1">
-        <v>5.8565153733528559E-2</v>
+        <v>6.02409638554217E-2</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9.3385214007782082E-3</v>
+        <v>9.5162569389373505E-3</v>
       </c>
       <c r="B2">
-        <v>1.0090817356205855E-2</v>
+        <v>1.0319917440660476E-2</v>
       </c>
       <c r="C2">
-        <v>1.0403120936280881E-2</v>
+        <v>1.0666666666666665E-2</v>
       </c>
       <c r="D2">
-        <v>1.0178117048346057E-2</v>
+        <v>1.0389610389610391E-2</v>
       </c>
       <c r="E2">
-        <v>1.0248901903367498E-2</v>
+        <v>1.0542168674698798E-2</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.3929961089494151E-2</v>
+        <v>7.5337034099920694E-2</v>
       </c>
       <c r="B3">
-        <v>6.7608476286579233E-2</v>
+        <v>6.9143446852425183E-2</v>
       </c>
       <c r="C3">
-        <v>6.5019505851755505E-2</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="D3">
-        <v>7.6335877862595422E-2</v>
+        <v>7.792207792207792E-2</v>
       </c>
       <c r="E3">
-        <v>7.1742313323572476E-2</v>
+        <v>7.3795180722891582E-2</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.0116731517509726E-2</v>
+        <v>1.0309278350515464E-2</v>
       </c>
       <c r="B4">
-        <v>1.2108980827447024E-2</v>
+        <v>1.238390092879257E-2</v>
       </c>
       <c r="C4">
-        <v>6.5019505851755515E-3</v>
+        <v>6.6666666666666654E-3</v>
       </c>
       <c r="D4">
-        <v>7.6335877862595426E-3</v>
+        <v>7.7922077922077931E-3</v>
       </c>
       <c r="E4">
-        <v>5.8565153733528561E-3</v>
+        <v>6.0240963855421699E-3</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.3229571984435798E-2</v>
+        <v>1.3481363996827913E-2</v>
       </c>
       <c r="B5">
-        <v>1.109989909182644E-2</v>
+        <v>1.1351909184726523E-2</v>
       </c>
       <c r="C5">
-        <v>1.170351105331599E-2</v>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="D5">
-        <v>1.0178117048346057E-2</v>
+        <v>1.0389610389610391E-2</v>
       </c>
       <c r="E5">
-        <v>1.0248901903367498E-2</v>
+        <v>1.0542168674698798E-2</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.2256809338521396E-3</v>
+        <v>6.3441712926249E-3</v>
       </c>
       <c r="B6">
-        <v>7.0635721493440985E-3</v>
+        <v>7.223942208462333E-3</v>
       </c>
       <c r="C6">
-        <v>6.5019505851755515E-3</v>
+        <v>6.6666666666666654E-3</v>
       </c>
       <c r="D6">
-        <v>7.6335877862595426E-3</v>
+        <v>7.7922077922077931E-3</v>
       </c>
       <c r="E6">
-        <v>5.8565153733528561E-3</v>
+        <v>6.0240963855421699E-3</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.8677042801556416E-2</v>
+        <v>1.9032513877874701E-2</v>
       </c>
       <c r="B7">
-        <v>1.8163471241170535E-2</v>
+        <v>1.8575851393188854E-2</v>
       </c>
       <c r="C7">
-        <v>1.8205461638491544E-2</v>
+        <v>1.8666666666666665E-2</v>
       </c>
       <c r="D7">
-        <v>1.9083969465648856E-2</v>
+        <v>1.948051948051948E-2</v>
       </c>
       <c r="E7">
-        <v>2.0497803806734997E-2</v>
+        <v>2.1084337349397596E-2</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3.7354085603112833E-2</v>
+        <v>3.8065027755749402E-2</v>
       </c>
       <c r="B8">
-        <v>3.7336024217961658E-2</v>
+        <v>3.8183694530443756E-2</v>
       </c>
       <c r="C8">
-        <v>3.5110533159947978E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D8">
-        <v>3.8167938931297711E-2</v>
+        <v>3.896103896103896E-2</v>
       </c>
       <c r="E8">
-        <v>4.24597364568082E-2</v>
+        <v>4.3674698795180725E-2</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2.4902723735408559E-2</v>
+        <v>2.53766851704996E-2</v>
       </c>
       <c r="B9">
-        <v>2.2199798183652881E-2</v>
+        <v>2.2703818369453045E-2</v>
       </c>
       <c r="C9">
-        <v>2.2106631989596875E-2</v>
+        <v>2.2666666666666661E-2</v>
       </c>
       <c r="D9">
-        <v>2.2900763358778626E-2</v>
+        <v>2.3376623376623377E-2</v>
       </c>
       <c r="E9">
-        <v>2.0497803806734997E-2</v>
+        <v>2.1084337349397596E-2</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1.1673151750972761E-2</v>
+        <v>1.1895321173671687E-2</v>
       </c>
       <c r="B10">
-        <v>1.2108980827447024E-2</v>
+        <v>1.238390092879257E-2</v>
       </c>
       <c r="C10">
-        <v>1.5604681404421322E-2</v>
+        <v>1.5999999999999997E-2</v>
       </c>
       <c r="D10">
-        <v>1.0178117048346057E-2</v>
+        <v>1.0389610389610391E-2</v>
       </c>
       <c r="E10">
-        <v>1.1713030746705712E-2</v>
+        <v>1.204819277108434E-2</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.4007782101167312E-2</v>
+        <v>1.4274385408406025E-2</v>
       </c>
       <c r="B11">
-        <v>1.4127144298688197E-2</v>
+        <v>1.4447884416924666E-2</v>
       </c>
       <c r="C11">
-        <v>1.4304291287386212E-2</v>
+        <v>1.4666666666666663E-2</v>
       </c>
       <c r="D11">
-        <v>1.6539440203562343E-2</v>
+        <v>1.6883116883116885E-2</v>
       </c>
       <c r="E11">
-        <v>1.7569546120058566E-2</v>
+        <v>1.8072289156626509E-2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7.3151750972762636E-2</v>
+        <v>7.454401268834257E-2</v>
       </c>
       <c r="B12">
-        <v>7.1644803229061568E-2</v>
+        <v>7.3271413828689375E-2</v>
       </c>
       <c r="C12">
-        <v>7.0221066319895956E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D12">
-        <v>7.7608142493638677E-2</v>
+        <v>7.9220779220779233E-2</v>
       </c>
       <c r="E12">
-        <v>8.1991215226939987E-2</v>
+        <v>8.4337349397590383E-2</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3.3463035019455252E-2</v>
+        <v>3.4099920697858839E-2</v>
       </c>
       <c r="B13">
-        <v>3.3299697275479323E-2</v>
+        <v>3.4055727554179571E-2</v>
       </c>
       <c r="C13">
-        <v>3.2509752925877752E-2</v>
+        <v>3.3333333333333326E-2</v>
       </c>
       <c r="D13">
-        <v>3.5623409669211202E-2</v>
+        <v>3.6363636363636369E-2</v>
       </c>
       <c r="E13">
-        <v>3.074670571010249E-2</v>
+        <v>3.162650602409639E-2</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>6.7704280155642019E-2</v>
+        <v>6.8992862807295788E-2</v>
       </c>
       <c r="B14">
-        <v>7.0635721493440981E-2</v>
+        <v>7.223942208462332E-2</v>
       </c>
       <c r="C14">
-        <v>7.1521456436931072E-2</v>
+        <v>7.333333333333332E-2</v>
       </c>
       <c r="D14">
-        <v>6.3613231552162849E-2</v>
+        <v>6.4935064935064943E-2</v>
       </c>
       <c r="E14">
-        <v>7.0278184480234263E-2</v>
+        <v>7.2289156626506035E-2</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.0116731517509726E-2</v>
+        <v>1.0309278350515464E-2</v>
       </c>
       <c r="B15">
-        <v>1.0090817356205855E-2</v>
+        <v>1.0319917440660476E-2</v>
       </c>
       <c r="C15">
-        <v>1.170351105331599E-2</v>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="D15">
-        <v>1.0178117048346057E-2</v>
+        <v>1.0389610389610391E-2</v>
       </c>
       <c r="E15">
-        <v>1.1713030746705712E-2</v>
+        <v>1.204819277108434E-2</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>5.3696498054474698E-2</v>
+        <v>5.4718477398889763E-2</v>
       </c>
       <c r="B16">
-        <v>5.449041372351162E-2</v>
+        <v>5.5727554179566569E-2</v>
       </c>
       <c r="C16">
-        <v>5.5916775032509733E-2</v>
+        <v>5.7333333333333319E-2</v>
       </c>
       <c r="D16">
-        <v>5.9796437659033079E-2</v>
+        <v>6.1038961038961038E-2</v>
       </c>
       <c r="E16">
-        <v>6.8814055636896049E-2</v>
+        <v>7.0783132530120488E-2</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>6.9260700389105048E-2</v>
+        <v>7.0578905630452021E-2</v>
       </c>
       <c r="B17">
-        <v>6.861755802219982E-2</v>
+        <v>7.0175438596491238E-2</v>
       </c>
       <c r="C17">
-        <v>7.1521456436931072E-2</v>
+        <v>7.333333333333332E-2</v>
       </c>
       <c r="D17">
-        <v>6.8702290076335881E-2</v>
+        <v>7.0129870129870139E-2</v>
       </c>
       <c r="E17">
-        <v>6.149341142020498E-2</v>
+        <v>6.325301204819278E-2</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1.478599221789883E-2</v>
+        <v>1.5067406819984138E-2</v>
       </c>
       <c r="B18">
-        <v>1.6145307769929368E-2</v>
+        <v>1.6511867905056762E-2</v>
       </c>
       <c r="C18">
-        <v>1.6905071521456434E-2</v>
+        <v>1.7333333333333329E-2</v>
       </c>
       <c r="D18">
-        <v>1.5267175572519085E-2</v>
+        <v>1.5584415584415586E-2</v>
       </c>
       <c r="E18">
-        <v>1.6105417276720352E-2</v>
+        <v>1.6566265060240969E-2</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1.0116731517509726E-2</v>
+        <v>1.0309278350515464E-2</v>
       </c>
       <c r="B19">
-        <v>1.109989909182644E-2</v>
+        <v>1.1351909184726523E-2</v>
       </c>
       <c r="C19">
-        <v>1.170351105331599E-2</v>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="D19">
-        <v>1.0178117048346057E-2</v>
+        <v>1.0389610389610391E-2</v>
       </c>
       <c r="E19">
-        <v>8.7847730600292828E-3</v>
+        <v>9.0361445783132543E-3</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2.9571984435797661E-2</v>
+        <v>3.0134813639968276E-2</v>
       </c>
       <c r="B20">
-        <v>2.9263370332996974E-2</v>
+        <v>2.9927760577915376E-2</v>
       </c>
       <c r="C20">
-        <v>2.9908972691807534E-2</v>
+        <v>3.0666666666666662E-2</v>
       </c>
       <c r="D20">
-        <v>3.053435114503817E-2</v>
+        <v>3.1168831168831172E-2</v>
       </c>
       <c r="E20">
-        <v>2.6354319180087848E-2</v>
+        <v>2.7108433734939763E-2</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.7898832684824902E-2</v>
+        <v>1.8239492466296588E-2</v>
       </c>
       <c r="B21">
-        <v>1.6145307769929368E-2</v>
+        <v>1.6511867905056762E-2</v>
       </c>
       <c r="C21">
-        <v>1.6905071521456434E-2</v>
+        <v>1.7333333333333329E-2</v>
       </c>
       <c r="D21">
-        <v>1.1450381679389313E-2</v>
+        <v>1.1688311688311689E-2</v>
       </c>
       <c r="E21">
-        <v>1.0248901903367498E-2</v>
+        <v>1.0542168674698798E-2</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2.9571984435797661E-2</v>
+        <v>3.0134813639968276E-2</v>
       </c>
       <c r="B22">
-        <v>3.1281533804238149E-2</v>
+        <v>3.1991744066047476E-2</v>
       </c>
       <c r="C22">
-        <v>3.1209362808842643E-2</v>
+        <v>3.1999999999999994E-2</v>
       </c>
       <c r="D22">
-        <v>2.7989821882951658E-2</v>
+        <v>2.8571428571428574E-2</v>
       </c>
       <c r="E22">
-        <v>2.928257686676428E-2</v>
+        <v>3.012048192771085E-2</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1.8677042801556416E-2</v>
+        <v>1.1102299762093577E-2</v>
       </c>
       <c r="B23">
-        <v>2.2199798183652881E-2</v>
+        <v>1.238390092879257E-2</v>
       </c>
       <c r="C23">
-        <v>2.4707412223667093E-2</v>
+        <v>1.1999999999999997E-2</v>
       </c>
       <c r="D23">
-        <v>2.0356234096692113E-2</v>
+        <v>1.298701298701299E-2</v>
       </c>
       <c r="E23">
-        <v>2.7818448023426066E-2</v>
+        <v>1.3554216867469882E-2</v>
       </c>
       <c r="F23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1.6653449643140361E-2</v>
+      </c>
+      <c r="B24">
+        <v>1.754385964912281E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.8666666666666665E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.5584415584415586E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.5060240963855425E-2</v>
+      </c>
+      <c r="F24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>1.6342412451361865E-2</v>
-      </c>
-      <c r="B24">
-        <v>1.7154389505549955E-2</v>
-      </c>
-      <c r="C24">
-        <v>1.8205461638491544E-2</v>
-      </c>
-      <c r="D24">
-        <v>1.5267175572519085E-2</v>
-      </c>
-      <c r="E24">
-        <v>1.464128843338214E-2</v>
-      </c>
-      <c r="F24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1.4274385408406025E-2</v>
+      </c>
+      <c r="B25">
+        <v>1.1351909184726523E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.4666666666666663E-2</v>
+      </c>
+      <c r="D25">
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="E25">
+        <v>7.5301204819277125E-3</v>
+      </c>
+      <c r="F25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1.4007782101167312E-2</v>
-      </c>
-      <c r="B25">
-        <v>1.109989909182644E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.4304291287386212E-2</v>
-      </c>
-      <c r="D25">
-        <v>8.9058524173028005E-3</v>
-      </c>
-      <c r="E25">
-        <v>7.3206442166910699E-3</v>
-      </c>
-      <c r="F25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1.1102299762093577E-2</v>
+      </c>
+      <c r="B26">
+        <v>1.238390092879257E-2</v>
+      </c>
+      <c r="C26">
+        <v>9.3333333333333324E-3</v>
+      </c>
+      <c r="D26">
+        <v>1.298701298701299E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.0542168674698798E-2</v>
+      </c>
+      <c r="F26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>1.0894941634241245E-2</v>
-      </c>
-      <c r="B26">
-        <v>1.2108980827447024E-2</v>
-      </c>
-      <c r="C26">
-        <v>9.1027308192457718E-3</v>
-      </c>
-      <c r="D26">
-        <v>1.2722646310432571E-2</v>
-      </c>
-      <c r="E26">
-        <v>1.0248901903367498E-2</v>
-      </c>
-      <c r="F26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9.5162569389373505E-3</v>
+      </c>
+      <c r="B27">
+        <v>9.2879256965944269E-3</v>
+      </c>
+      <c r="C27">
+        <v>9.3333333333333324E-3</v>
+      </c>
+      <c r="D27">
+        <v>7.7922077922077931E-3</v>
+      </c>
+      <c r="E27">
+        <v>7.5301204819277125E-3</v>
+      </c>
+      <c r="F27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>9.3385214007782082E-3</v>
-      </c>
-      <c r="B27">
-        <v>9.0817356205852677E-3</v>
-      </c>
-      <c r="C27">
-        <v>9.1027308192457718E-3</v>
-      </c>
-      <c r="D27">
-        <v>7.6335877862595426E-3</v>
-      </c>
-      <c r="E27">
-        <v>7.3206442166910699E-3</v>
-      </c>
-      <c r="F27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3.17208564631245E-3</v>
+      </c>
+      <c r="B28">
+        <v>4.1279669762641904E-3</v>
+      </c>
+      <c r="C28">
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D28">
+        <v>3.8961038961038965E-3</v>
+      </c>
+      <c r="E28">
+        <v>3.0120481927710849E-3</v>
+      </c>
+      <c r="F28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>3.1128404669260698E-3</v>
-      </c>
-      <c r="B28">
-        <v>4.036326942482342E-3</v>
-      </c>
-      <c r="C28">
-        <v>3.9011703511053304E-3</v>
-      </c>
-      <c r="D28">
-        <v>3.8167938931297713E-3</v>
-      </c>
-      <c r="E28">
-        <v>2.928257686676428E-3</v>
-      </c>
-      <c r="F28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="B29">
+        <v>2.5799793601651189E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.3999999999999994E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.2077922077922082E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.1084337349397596E-2</v>
+      </c>
+      <c r="F29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>2.0233463035019453E-2</v>
-      </c>
-      <c r="B29">
-        <v>2.5227043390514636E-2</v>
-      </c>
-      <c r="C29">
-        <v>2.3407022106631981E-2</v>
-      </c>
-      <c r="D29">
-        <v>2.1628498727735371E-2</v>
-      </c>
-      <c r="E29">
-        <v>2.0497803806734997E-2</v>
-      </c>
-      <c r="F29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5.5511498810467885E-3</v>
+      </c>
+      <c r="B30">
+        <v>5.1599587203302382E-3</v>
+      </c>
+      <c r="C30">
+        <v>5.3333333333333323E-3</v>
+      </c>
+      <c r="D30">
+        <v>3.8961038961038965E-3</v>
+      </c>
+      <c r="E30">
+        <v>4.5180722891566272E-3</v>
+      </c>
+      <c r="F30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>5.4474708171206223E-3</v>
-      </c>
-      <c r="B30">
-        <v>5.0454086781029275E-3</v>
-      </c>
-      <c r="C30">
-        <v>5.2015604681404405E-3</v>
-      </c>
-      <c r="D30">
-        <v>3.8167938931297713E-3</v>
-      </c>
-      <c r="E30">
-        <v>4.3923865300146414E-3</v>
-      </c>
-      <c r="F30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2.2204599524187154E-2</v>
+      </c>
+      <c r="B31">
+        <v>2.0639834881320953E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.9999999999999993E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.8181818181818184E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.6566265060240969E-2</v>
+      </c>
+      <c r="F31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>2.1789883268482489E-2</v>
-      </c>
-      <c r="B31">
-        <v>2.018163471241171E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.9505851755526653E-2</v>
-      </c>
-      <c r="D31">
-        <v>1.7811704834605601E-2</v>
-      </c>
-      <c r="E31">
-        <v>1.6105417276720352E-2</v>
-      </c>
-      <c r="F31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1.1895321173671687E-2</v>
+      </c>
+      <c r="B32">
+        <v>1.238390092879257E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.1999999999999997E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.1688311688311689E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.204819277108434E-2</v>
+      </c>
+      <c r="F32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>1.1673151750972761E-2</v>
-      </c>
-      <c r="B32">
-        <v>1.2108980827447024E-2</v>
-      </c>
-      <c r="C32">
-        <v>1.170351105331599E-2</v>
-      </c>
-      <c r="D32">
-        <v>1.1450381679389313E-2</v>
-      </c>
-      <c r="E32">
-        <v>1.1713030746705712E-2</v>
-      </c>
-      <c r="F32" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1.586042823156225E-3</v>
+      </c>
+      <c r="B33">
+        <v>2.0639834881320952E-3</v>
+      </c>
+      <c r="C33">
+        <v>2.6666666666666661E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.2987012987012989E-3</v>
+      </c>
+      <c r="E33">
+        <v>1.5060240963855425E-3</v>
+      </c>
+      <c r="F33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1.5564202334630349E-3</v>
-      </c>
-      <c r="B33">
-        <v>2.018163471241171E-3</v>
-      </c>
-      <c r="C33">
-        <v>2.6007802340702203E-3</v>
-      </c>
-      <c r="D33">
-        <v>1.2722646310432571E-3</v>
-      </c>
-      <c r="E33">
-        <v>1.464128843338214E-3</v>
-      </c>
-      <c r="F33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8.7232355273592372E-3</v>
+      </c>
+      <c r="B34">
+        <v>9.2879256965944269E-3</v>
+      </c>
+      <c r="C34">
+        <v>9.3333333333333324E-3</v>
+      </c>
+      <c r="D34">
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="E34">
+        <v>9.0361445783132543E-3</v>
+      </c>
+      <c r="F34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>8.5603112840466917E-3</v>
-      </c>
-      <c r="B34">
-        <v>9.0817356205852677E-3</v>
-      </c>
-      <c r="C34">
-        <v>9.1027308192457718E-3</v>
-      </c>
-      <c r="D34">
-        <v>8.9058524173028005E-3</v>
-      </c>
-      <c r="E34">
-        <v>8.7847730600292828E-3</v>
-      </c>
-      <c r="F34" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1.7446471054718474E-2</v>
+      </c>
+      <c r="B35">
+        <v>1.754385964912281E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.7333333333333329E-2</v>
+      </c>
+      <c r="D35">
+        <v>1.5584415584415586E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.6566265060240969E-2</v>
+      </c>
+      <c r="F35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>1.7120622568093383E-2</v>
-      </c>
-      <c r="B35">
-        <v>1.7154389505549955E-2</v>
-      </c>
-      <c r="C35">
-        <v>1.6905071521456434E-2</v>
-      </c>
-      <c r="D35">
-        <v>1.5267175572519085E-2</v>
-      </c>
-      <c r="E35">
-        <v>1.6105417276720352E-2</v>
-      </c>
-      <c r="F35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1.4274385408406025E-2</v>
+      </c>
+      <c r="B36">
+        <v>1.4447884416924666E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.4666666666666663E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.5584415584415586E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.9578313253012052E-2</v>
+      </c>
+      <c r="F36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>1.4007782101167312E-2</v>
-      </c>
-      <c r="B36">
-        <v>1.4127144298688197E-2</v>
-      </c>
-      <c r="C36">
-        <v>1.4304291287386212E-2</v>
-      </c>
-      <c r="D36">
-        <v>1.5267175572519085E-2</v>
-      </c>
-      <c r="E36">
-        <v>1.9033674963396783E-2</v>
-      </c>
-      <c r="F36" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1.5067406819984138E-2</v>
+      </c>
+      <c r="B37">
+        <v>1.3415892672858618E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.4666666666666663E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.298701298701299E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.5060240963855425E-2</v>
+      </c>
+      <c r="F37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>1.478599221789883E-2</v>
-      </c>
-      <c r="B37">
-        <v>1.3118062563067611E-2</v>
-      </c>
-      <c r="C37">
-        <v>1.4304291287386212E-2</v>
-      </c>
-      <c r="D37">
-        <v>1.2722646310432571E-2</v>
-      </c>
-      <c r="E37">
-        <v>1.464128843338214E-2</v>
-      </c>
-      <c r="F37" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>0.011895321+0.0198255352894528</f>
+        <v>3.1720856289452801E-2</v>
+      </c>
+      <c r="B38">
+        <f>0.0113519091847265+0.0185758513931889</f>
+        <v>2.9927760577915401E-2</v>
+      </c>
+      <c r="C38">
+        <f>0.012+0.016</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <f>0.015584416+0.0168831168831169</f>
+        <v>3.2467532883116899E-2</v>
+      </c>
+      <c r="E38">
+        <f>0.012048193+0.015060241</f>
+        <v>2.7108434000000001E-2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6.1062648691514669E-2</v>
+      </c>
+      <c r="B39">
+        <v>5.6759545923632616E-2</v>
+      </c>
+      <c r="C39">
+        <v>4.7999999999999987E-2</v>
+      </c>
+      <c r="D39">
+        <v>6.2337662337662345E-2</v>
+      </c>
+      <c r="E39">
+        <v>5.873493975903616E-2</v>
+      </c>
+      <c r="F39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <f>0.0116731517509728+0.019455253</f>
-        <v>3.1128404750972796E-2</v>
-      </c>
-      <c r="B38">
-        <f>0.0110998990918264+0.0181634712411705</f>
-        <v>2.9263370332996901E-2</v>
-      </c>
-      <c r="C38">
-        <f>0.011703511053316+0.015604681</f>
-        <v>2.7308192053315999E-2</v>
-      </c>
-      <c r="D38">
-        <f>0.0152671755725191+0.01653944</f>
-        <v>3.1806615572519098E-2</v>
-      </c>
-      <c r="E38">
-        <f>0.0117130307467057+0.0146412884333821</f>
-        <v>2.63543191800878E-2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>5.9922178988326844E-2</v>
-      </c>
-      <c r="B39">
-        <v>5.54994954591322E-2</v>
-      </c>
-      <c r="C39">
-        <v>4.6814044213263961E-2</v>
-      </c>
-      <c r="D39">
-        <v>6.106870229007634E-2</v>
-      </c>
-      <c r="E39">
-        <v>5.7101024890190345E-2</v>
-      </c>
-      <c r="F39" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>0.010309278+0.010309278</f>
+        <v>2.0618556E-2</v>
+      </c>
+      <c r="B40">
+        <f>0.009287926+0.011351909</f>
+        <v>2.0639835000000002E-2</v>
+      </c>
+      <c r="C40">
+        <f>0.010666667+0.012</f>
+        <v>2.2666667000000001E-2</v>
+      </c>
+      <c r="D40">
+        <f>0.009090909+0.011688312</f>
+        <v>2.0779221E-2</v>
+      </c>
+      <c r="E40">
+        <f>0.00753012+0.012048193</f>
+        <v>1.9578313E-2</v>
+      </c>
+      <c r="F40" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <f>0.0101167315175097+0.010116732</f>
-        <v>2.0233463517509702E-2</v>
-      </c>
-      <c r="B40">
-        <f>0.00908173562058527+0.0110998990918264</f>
-        <v>2.0181634712411668E-2</v>
-      </c>
-      <c r="C40">
-        <f>0.0104031209362809+0.011703511</f>
-        <v>2.2106631936280902E-2</v>
-      </c>
-      <c r="D40">
-        <f>0.0089058524173028+0.0114503816793893</f>
-        <v>2.03562340966921E-2</v>
-      </c>
-      <c r="E40">
-        <f>0.00732064421669107+0.011713031</f>
-        <v>1.9033675216691071E-2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
